--- a/batches/21/week_02_aggregation_grouping/day_05/day_5.xlsx
+++ b/batches/21/week_02_aggregation_grouping/day_05/day_5.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shira/Documents/modules/sql/batches/21/week_02_aggregation_grouping/day_05/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CAD1ADC-B3F7-7440-89B2-8BBADFC6FBCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90100169-D043-F94D-93B7-588CCFF85B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-1440" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{F54E36AB-E4C2-A84D-A2E3-1B8113DCDEF4}"/>
+    <workbookView xWindow="-38400" yWindow="-940" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{F54E36AB-E4C2-A84D-A2E3-1B8113DCDEF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Recap" sheetId="1" r:id="rId1"/>
     <sheet name="Agenda" sheetId="2" r:id="rId2"/>
     <sheet name="RDBMS" sheetId="3" r:id="rId3"/>
-    <sheet name="Data Filtering" sheetId="4" r:id="rId4"/>
+    <sheet name="Aggregate Functions" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="114">
   <si>
     <t>Day 1</t>
   </si>
@@ -182,9 +182,6 @@
     <t>Data Sorting</t>
   </si>
   <si>
-    <t>Aggregation Functions</t>
-  </si>
-  <si>
     <t>Retail_supply</t>
   </si>
   <si>
@@ -243,13 +240,176 @@
   </si>
   <si>
     <t>`=&gt; RDBMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Aggregate Functions</t>
+  </si>
+  <si>
+    <t>Group By</t>
+  </si>
+  <si>
+    <t>Pivot Table</t>
+  </si>
+  <si>
+    <t>Rows</t>
+  </si>
+  <si>
+    <t>Columns</t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t>Filters</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Numerical</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Aggregate</t>
+  </si>
+  <si>
+    <t>Aggregate Functions in SQL are used to perform calculations on multiple rows of data and return a single summary value.
+They help you summarize, analyze, and extract insights from large datasets — for example, finding total sales, average salary, or maximum marks.</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Count(Amount)</t>
+  </si>
+  <si>
+    <t>Order Of Execution</t>
+  </si>
+  <si>
+    <t>FROM</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Clause</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>1️⃣</t>
+  </si>
+  <si>
+    <t>Identify source tables and perform joins.</t>
+  </si>
+  <si>
+    <t>2️⃣</t>
+  </si>
+  <si>
+    <t>WHERE</t>
+  </si>
+  <si>
+    <t>Filter rows based on conditions (before grouping).</t>
+  </si>
+  <si>
+    <t>3️⃣</t>
+  </si>
+  <si>
+    <t>GROUP BY</t>
+  </si>
+  <si>
+    <t>Group rows based on one or more columns.</t>
+  </si>
+  <si>
+    <t>4️⃣</t>
+  </si>
+  <si>
+    <t>HAVING</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Filter groups created by </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>GROUP BY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>5️⃣</t>
+  </si>
+  <si>
+    <t>SELECT</t>
+  </si>
+  <si>
+    <t>Pick columns or expressions (aggregations happen here).</t>
+  </si>
+  <si>
+    <t>6️⃣</t>
+  </si>
+  <si>
+    <t>ORDER BY</t>
+  </si>
+  <si>
+    <t>Sort the final result.</t>
+  </si>
+  <si>
+    <t>7️⃣</t>
+  </si>
+  <si>
+    <t>LIMIT / OFFSET</t>
+  </si>
+  <si>
+    <t>Restrict the number of rows returned.</t>
+  </si>
+  <si>
+    <t>Having</t>
+  </si>
+  <si>
+    <t>Filter the original Table</t>
+  </si>
+  <si>
+    <t>It will Filter Summarised Table</t>
+  </si>
+  <si>
+    <t>Where And Having</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -269,8 +429,36 @@
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,6 +471,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -293,16 +486,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -333,8 +532,8 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>81729</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="2" name="Ink 1">
@@ -353,7 +552,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="2" name="Ink 1">
@@ -398,8 +597,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>154450</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="3" name="Ink 2">
@@ -418,7 +617,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="3" name="Ink 2">
@@ -463,8 +662,8 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>120248</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="7" name="Ink 6">
@@ -483,7 +682,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="7" name="Ink 6">
@@ -513,6 +712,55 @@
         </xdr:pic>
       </mc:Fallback>
     </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>200035</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2184144</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>146802</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DA2651D-4281-E1B0-E78F-ECC090D9C74C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="479425" y="4873635"/>
+          <a:ext cx="4419600" cy="962767"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -920,13 +1168,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F0D26B-FFB0-2341-9BCB-4181DE283C35}">
   <dimension ref="B2:D44"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="221" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39:D44"/>
+    <sheetView topLeftCell="A33" zoomScale="221" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="62.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1181,10 +1430,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C4220F6-DFA6-3D41-9EAF-5FA29EF4C6F8}">
-  <dimension ref="A2:B6"/>
+  <dimension ref="A2:D14"/>
   <sheetViews>
-    <sheetView zoomScale="284" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="284" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1192,24 +1441,60 @@
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>47</v>
+        <v>68</v>
+      </c>
+      <c r="D6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1219,10 +1504,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7790175B-9139-474B-900B-80D5FC9C8DDA}">
-  <dimension ref="B2:I14"/>
+  <dimension ref="B2:I15"/>
   <sheetViews>
     <sheetView zoomScale="279" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1241,82 +1526,82 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C4" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
         <v>50</v>
       </c>
-      <c r="E6" t="s">
-        <v>51</v>
-      </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
@@ -1324,16 +1609,21 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1344,15 +1634,354 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D456A7-3890-E44D-BFD9-A018DFCF1D18}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD86F236-72B7-EB41-A3F3-F907D4C80D05}">
+  <dimension ref="B2:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView topLeftCell="A30" zoomScale="268" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="6.1640625" customWidth="1"/>
+    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>56</v>
+      </c>
+      <c r="E19">
+        <f>COUNT(B19:B23)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>56</v>
+      </c>
+      <c r="E20">
+        <f>COUNT(C19:C23)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="E22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>85</v>
+      </c>
+      <c r="F31" t="s">
+        <v>71</v>
+      </c>
+      <c r="G31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32">
+        <v>1000</v>
+      </c>
+      <c r="G32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B33" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" t="s">
+        <v>91</v>
+      </c>
+      <c r="F34">
+        <v>1000</v>
+      </c>
+      <c r="G34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" t="s">
+        <v>94</v>
+      </c>
+      <c r="F35">
+        <v>900</v>
+      </c>
+      <c r="G35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" t="s">
+        <v>97</v>
+      </c>
+      <c r="F36">
+        <v>100</v>
+      </c>
+      <c r="G36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="17" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D37" t="s">
+        <v>100</v>
+      </c>
+      <c r="F37">
+        <v>50</v>
+      </c>
+      <c r="G37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" t="s">
+        <v>103</v>
+      </c>
+      <c r="F38">
+        <v>50</v>
+      </c>
+      <c r="G38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" t="s">
+        <v>106</v>
+      </c>
+      <c r="F39">
+        <v>50</v>
+      </c>
+      <c r="G39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D40" t="s">
+        <v>109</v>
+      </c>
+      <c r="F40">
+        <v>5</v>
+      </c>
+      <c r="G40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B11:G14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>